--- a/game_words.xlsx
+++ b/game_words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uni\forthyear\semesterB\meaning\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uni\forthyear\semesterB\meaning\project\codenames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{725579EB-8068-4CAB-A29C-47DFCAD2D900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D1731E-0C3E-4A81-94EA-55A6CCBECAEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7C5696F5-1EDC-4E4F-91BC-856D3A867F02}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$626</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$601</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="395">
   <si>
     <t>PENGUIN</t>
   </si>
@@ -1291,56 +1291,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FFD13030"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD13030"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD13030"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD13030"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF4183CC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF4183CC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF4183CC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF4183CC"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1650,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44463DD3-91D1-4680-9611-A1AD70FB94F7}">
-  <dimension ref="A1:D626"/>
+  <dimension ref="A1:D601"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4129,11 +4080,11 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
-        <v>163</v>
+      <c r="A177" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B177" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C177">
         <v>8</v>
@@ -4144,7 +4095,7 @@
     </row>
     <row r="178" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B178" t="s">
         <v>394</v>
@@ -4158,7 +4109,7 @@
     </row>
     <row r="179" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B179" t="s">
         <v>392</v>
@@ -4171,11 +4122,11 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
-        <v>166</v>
+      <c r="A180" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C180">
         <v>8</v>
@@ -4185,11 +4136,11 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
-        <v>167</v>
+      <c r="A181" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C181">
         <v>8</v>
@@ -4199,11 +4150,11 @@
       </c>
     </row>
     <row r="182" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
-        <v>168</v>
+      <c r="A182" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C182">
         <v>8</v>
@@ -4214,7 +4165,7 @@
     </row>
     <row r="183" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="B183" t="s">
         <v>392</v>
@@ -4227,11 +4178,11 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>169</v>
+      <c r="A184" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C184">
         <v>8</v>
@@ -4241,11 +4192,11 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>170</v>
+      <c r="A185" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C185">
         <v>8</v>
@@ -4256,7 +4207,7 @@
     </row>
     <row r="186" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="B186" t="s">
         <v>393</v>
@@ -4269,11 +4220,11 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>171</v>
+      <c r="A187" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C187">
         <v>8</v>
@@ -4283,11 +4234,11 @@
       </c>
     </row>
     <row r="188" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
-        <v>8</v>
+      <c r="A188" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>162</v>
+        <v>394</v>
       </c>
       <c r="C188">
         <v>8</v>
@@ -4297,11 +4248,11 @@
       </c>
     </row>
     <row r="189" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
-        <v>172</v>
+      <c r="A189" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C189">
         <v>8</v>
@@ -4311,11 +4262,11 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
-        <v>173</v>
+      <c r="A190" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C190">
         <v>8</v>
@@ -4325,11 +4276,11 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
-        <v>9</v>
+      <c r="A191" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C191">
         <v>8</v>
@@ -4339,11 +4290,11 @@
       </c>
     </row>
     <row r="192" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>174</v>
+      <c r="A192" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C192">
         <v>8</v>
@@ -4353,11 +4304,11 @@
       </c>
     </row>
     <row r="193" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>175</v>
+      <c r="A193" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C193">
         <v>8</v>
@@ -4367,11 +4318,11 @@
       </c>
     </row>
     <row r="194" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>176</v>
+      <c r="A194" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C194">
         <v>8</v>
@@ -4382,10 +4333,10 @@
     </row>
     <row r="195" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>393</v>
+        <v>162</v>
       </c>
       <c r="C195">
         <v>8</v>
@@ -4395,11 +4346,11 @@
       </c>
     </row>
     <row r="196" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
-        <v>177</v>
+      <c r="A196" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C196">
         <v>8</v>
@@ -4410,7 +4361,7 @@
     </row>
     <row r="197" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B197" t="s">
         <v>393</v>
@@ -4424,7 +4375,7 @@
     </row>
     <row r="198" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B198" t="s">
         <v>394</v>
@@ -4437,11 +4388,11 @@
       </c>
     </row>
     <row r="199" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
-        <v>7</v>
+      <c r="A199" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C199">
         <v>8</v>
@@ -4451,11 +4402,11 @@
       </c>
     </row>
     <row r="200" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
-        <v>38</v>
+      <c r="A200" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C200">
         <v>8</v>
@@ -4465,11 +4416,11 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A201" s="2" t="s">
-        <v>180</v>
+      <c r="A201" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C201">
         <v>8</v>
@@ -4480,7 +4431,7 @@
     </row>
     <row r="202" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="B202" t="s">
         <v>392</v>
@@ -4494,7 +4445,7 @@
     </row>
     <row r="203" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B203" t="s">
         <v>394</v>
@@ -4507,11 +4458,11 @@
       </c>
     </row>
     <row r="204" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A204" s="2" t="s">
-        <v>182</v>
+      <c r="A204" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B204" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C204">
         <v>9</v>
@@ -4521,11 +4472,11 @@
       </c>
     </row>
     <row r="205" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A205" s="3" t="s">
-        <v>183</v>
+      <c r="A205" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C205">
         <v>9</v>
@@ -4535,11 +4486,11 @@
       </c>
     </row>
     <row r="206" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>184</v>
+      <c r="A206" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C206">
         <v>9</v>
@@ -4550,7 +4501,7 @@
     </row>
     <row r="207" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="B207" t="s">
         <v>393</v>
@@ -4564,7 +4515,7 @@
     </row>
     <row r="208" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="B208" t="s">
         <v>392</v>
@@ -4577,11 +4528,11 @@
       </c>
     </row>
     <row r="209" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
-        <v>187</v>
+      <c r="A209" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C209">
         <v>9</v>
@@ -4591,11 +4542,11 @@
       </c>
     </row>
     <row r="210" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A210" s="2" t="s">
-        <v>188</v>
+      <c r="A210" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>392</v>
+        <v>162</v>
       </c>
       <c r="C210">
         <v>9</v>
@@ -4605,11 +4556,11 @@
       </c>
     </row>
     <row r="211" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A211" s="3" t="s">
-        <v>189</v>
+      <c r="A211" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C211">
         <v>9</v>
@@ -4619,11 +4570,11 @@
       </c>
     </row>
     <row r="212" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A212" s="2" t="s">
-        <v>190</v>
+      <c r="A212" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C212">
         <v>9</v>
@@ -4633,11 +4584,11 @@
       </c>
     </row>
     <row r="213" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
-        <v>191</v>
+      <c r="A213" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C213">
         <v>9</v>
@@ -4648,7 +4599,7 @@
     </row>
     <row r="214" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="B214" t="s">
         <v>393</v>
@@ -4661,11 +4612,11 @@
       </c>
     </row>
     <row r="215" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>193</v>
+      <c r="A215" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C215">
         <v>9</v>
@@ -4676,7 +4627,7 @@
     </row>
     <row r="216" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="B216" t="s">
         <v>394</v>
@@ -4690,7 +4641,7 @@
     </row>
     <row r="217" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B217" t="s">
         <v>392</v>
@@ -4703,11 +4654,11 @@
       </c>
     </row>
     <row r="218" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
-        <v>195</v>
+      <c r="A218" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B218" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C218">
         <v>9</v>
@@ -4717,11 +4668,11 @@
       </c>
     </row>
     <row r="219" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
-        <v>196</v>
+      <c r="A219" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C219">
         <v>9</v>
@@ -4731,11 +4682,11 @@
       </c>
     </row>
     <row r="220" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A220" s="3" t="s">
-        <v>197</v>
+      <c r="A220" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>162</v>
+        <v>392</v>
       </c>
       <c r="C220">
         <v>9</v>
@@ -4746,7 +4697,7 @@
     </row>
     <row r="221" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="B221" t="s">
         <v>393</v>
@@ -4759,11 +4710,11 @@
       </c>
     </row>
     <row r="222" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
-        <v>199</v>
+      <c r="A222" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C222">
         <v>9</v>
@@ -4774,7 +4725,7 @@
     </row>
     <row r="223" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="B223" t="s">
         <v>394</v>
@@ -4787,11 +4738,11 @@
       </c>
     </row>
     <row r="224" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
-        <v>201</v>
+      <c r="A224" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C224">
         <v>9</v>
@@ -4801,11 +4752,11 @@
       </c>
     </row>
     <row r="225" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
-        <v>202</v>
+      <c r="A225" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C225">
         <v>9</v>
@@ -4815,11 +4766,11 @@
       </c>
     </row>
     <row r="226" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A226" s="3" t="s">
-        <v>203</v>
+      <c r="A226" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C226">
         <v>9</v>
@@ -4830,7 +4781,7 @@
     </row>
     <row r="227" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
         <v>392</v>
@@ -4844,7 +4795,7 @@
     </row>
     <row r="228" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="B228" t="s">
         <v>394</v>
@@ -4857,11 +4808,11 @@
       </c>
     </row>
     <row r="229" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
-        <v>36</v>
+      <c r="A229" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C229">
         <v>10</v>
@@ -4872,7 +4823,7 @@
     </row>
     <row r="230" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="B230" t="s">
         <v>394</v>
@@ -4885,11 +4836,11 @@
       </c>
     </row>
     <row r="231" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
-        <v>207</v>
+      <c r="A231" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C231">
         <v>10</v>
@@ -4899,11 +4850,11 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A232" s="3" t="s">
-        <v>208</v>
+      <c r="A232" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B232" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C232">
         <v>10</v>
@@ -4913,11 +4864,11 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A233" s="2" t="s">
-        <v>209</v>
+      <c r="A233" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C233">
         <v>10</v>
@@ -4927,11 +4878,11 @@
       </c>
     </row>
     <row r="234" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A234" s="3" t="s">
-        <v>210</v>
+      <c r="A234" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C234">
         <v>10</v>
@@ -4941,11 +4892,11 @@
       </c>
     </row>
     <row r="235" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A235" s="3" t="s">
-        <v>211</v>
+      <c r="A235" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>162</v>
+        <v>394</v>
       </c>
       <c r="C235">
         <v>10</v>
@@ -4956,7 +4907,7 @@
     </row>
     <row r="236" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>394</v>
@@ -4969,11 +4920,11 @@
       </c>
     </row>
     <row r="237" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
-        <v>213</v>
+      <c r="A237" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C237">
         <v>10</v>
@@ -4983,11 +4934,11 @@
       </c>
     </row>
     <row r="238" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
-        <v>214</v>
+      <c r="A238" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B238" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C238">
         <v>10</v>
@@ -4997,11 +4948,11 @@
       </c>
     </row>
     <row r="239" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A239" s="3" t="s">
-        <v>215</v>
+      <c r="A239" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C239">
         <v>10</v>
@@ -5011,11 +4962,11 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A240" s="3" t="s">
-        <v>216</v>
+      <c r="A240" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C240">
         <v>10</v>
@@ -5026,7 +4977,7 @@
     </row>
     <row r="241" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="B241" t="s">
         <v>394</v>
@@ -5039,11 +4990,11 @@
       </c>
     </row>
     <row r="242" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A242" s="2" t="s">
-        <v>218</v>
+      <c r="A242" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>392</v>
+        <v>162</v>
       </c>
       <c r="C242">
         <v>10</v>
@@ -5054,7 +5005,7 @@
     </row>
     <row r="243" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="B243" t="s">
         <v>393</v>
@@ -5067,11 +5018,11 @@
       </c>
     </row>
     <row r="244" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
-        <v>219</v>
+      <c r="A244" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C244">
         <v>10</v>
@@ -5082,7 +5033,7 @@
     </row>
     <row r="245" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="B245" t="s">
         <v>392</v>
@@ -5096,7 +5047,7 @@
     </row>
     <row r="246" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="B246" t="s">
         <v>393</v>
@@ -5110,7 +5061,7 @@
     </row>
     <row r="247" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c r="B247" t="s">
         <v>392</v>
@@ -5123,11 +5074,11 @@
       </c>
     </row>
     <row r="248" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
-        <v>223</v>
+      <c r="A248" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C248">
         <v>10</v>
@@ -5138,7 +5089,7 @@
     </row>
     <row r="249" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>224</v>
+        <v>6</v>
       </c>
       <c r="B249" t="s">
         <v>392</v>
@@ -5151,11 +5102,11 @@
       </c>
     </row>
     <row r="250" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A250" s="2" t="s">
-        <v>225</v>
+      <c r="A250" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="B250" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C250">
         <v>10</v>
@@ -5165,11 +5116,11 @@
       </c>
     </row>
     <row r="251" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
-        <v>226</v>
+      <c r="A251" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="B251" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C251">
         <v>10</v>
@@ -5179,11 +5130,11 @@
       </c>
     </row>
     <row r="252" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A252" s="2" t="s">
-        <v>227</v>
+      <c r="A252" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="B252" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C252">
         <v>11</v>
@@ -5193,11 +5144,11 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
-        <v>228</v>
+      <c r="A253" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B253" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C253">
         <v>11</v>
@@ -5208,7 +5159,7 @@
     </row>
     <row r="254" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B254" t="s">
         <v>392</v>
@@ -5221,11 +5172,11 @@
       </c>
     </row>
     <row r="255" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
-        <v>230</v>
+      <c r="A255" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="B255" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C255">
         <v>11</v>
@@ -5236,7 +5187,7 @@
     </row>
     <row r="256" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="B256" t="s">
         <v>392</v>
@@ -5250,7 +5201,7 @@
     </row>
     <row r="257" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="B257" t="s">
         <v>394</v>
@@ -5263,11 +5214,11 @@
       </c>
     </row>
     <row r="258" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
-        <v>232</v>
+      <c r="A258" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="B258" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C258">
         <v>11</v>
@@ -5277,11 +5228,11 @@
       </c>
     </row>
     <row r="259" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A259" s="2" t="s">
-        <v>233</v>
+      <c r="A259" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="B259" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C259">
         <v>11</v>
@@ -5291,11 +5242,11 @@
       </c>
     </row>
     <row r="260" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
-        <v>234</v>
+      <c r="A260" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="B260" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C260">
         <v>11</v>
@@ -5305,11 +5256,11 @@
       </c>
     </row>
     <row r="261" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
-        <v>235</v>
+      <c r="A261" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="B261" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C261">
         <v>11</v>
@@ -5319,11 +5270,11 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A262" s="3" t="s">
-        <v>236</v>
+      <c r="A262" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B262" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C262">
         <v>11</v>
@@ -5333,11 +5284,11 @@
       </c>
     </row>
     <row r="263" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A263" s="3" t="s">
-        <v>31</v>
+      <c r="A263" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="B263" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C263">
         <v>11</v>
@@ -5347,11 +5298,11 @@
       </c>
     </row>
     <row r="264" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
-        <v>237</v>
+      <c r="A264" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="B264" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C264">
         <v>11</v>
@@ -5361,11 +5312,11 @@
       </c>
     </row>
     <row r="265" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
-        <v>238</v>
+      <c r="A265" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="B265" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C265">
         <v>11</v>
@@ -5376,7 +5327,7 @@
     </row>
     <row r="266" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="B266" t="s">
         <v>394</v>
@@ -5389,11 +5340,11 @@
       </c>
     </row>
     <row r="267" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A267" s="3" t="s">
-        <v>240</v>
+      <c r="A267" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="B267" t="s">
-        <v>162</v>
+        <v>394</v>
       </c>
       <c r="C267">
         <v>11</v>
@@ -5403,11 +5354,11 @@
       </c>
     </row>
     <row r="268" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A268" s="3" t="s">
-        <v>241</v>
+      <c r="A268" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="B268" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C268">
         <v>11</v>
@@ -5417,11 +5368,11 @@
       </c>
     </row>
     <row r="269" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A269" s="3" t="s">
-        <v>242</v>
+      <c r="A269" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="B269" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C269">
         <v>11</v>
@@ -5431,11 +5382,11 @@
       </c>
     </row>
     <row r="270" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A270" s="2" t="s">
-        <v>243</v>
+      <c r="A270" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B270" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C270">
         <v>11</v>
@@ -5446,10 +5397,10 @@
     </row>
     <row r="271" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="B271" t="s">
-        <v>393</v>
+        <v>162</v>
       </c>
       <c r="C271">
         <v>11</v>
@@ -5460,7 +5411,7 @@
     </row>
     <row r="272" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="B272" t="s">
         <v>392</v>
@@ -5473,11 +5424,11 @@
       </c>
     </row>
     <row r="273" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A273" s="2" t="s">
-        <v>245</v>
+      <c r="A273" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="B273" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C273">
         <v>11</v>
@@ -5487,11 +5438,11 @@
       </c>
     </row>
     <row r="274" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A274" s="2" t="s">
-        <v>6</v>
+      <c r="A274" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="B274" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C274">
         <v>11</v>
@@ -5501,11 +5452,11 @@
       </c>
     </row>
     <row r="275" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A275" s="3" t="s">
-        <v>246</v>
+      <c r="A275" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="B275" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C275">
         <v>11</v>
@@ -5516,7 +5467,7 @@
     </row>
     <row r="276" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="B276" t="s">
         <v>393</v>
@@ -5529,11 +5480,11 @@
       </c>
     </row>
     <row r="277" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A277" s="3" t="s">
-        <v>248</v>
+      <c r="A277" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="B277" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C277">
         <v>12</v>
@@ -5543,11 +5494,11 @@
       </c>
     </row>
     <row r="278" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A278" s="2" t="s">
-        <v>249</v>
+      <c r="A278" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="B278" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C278">
         <v>12</v>
@@ -5558,7 +5509,7 @@
     </row>
     <row r="279" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="B279" t="s">
         <v>392</v>
@@ -5571,11 +5522,11 @@
       </c>
     </row>
     <row r="280" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A280" s="2" t="s">
-        <v>251</v>
+      <c r="A280" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="B280" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C280">
         <v>12</v>
@@ -5586,7 +5537,7 @@
     </row>
     <row r="281" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="B281" t="s">
         <v>392</v>
@@ -5599,11 +5550,11 @@
       </c>
     </row>
     <row r="282" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
-        <v>253</v>
+      <c r="A282" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="B282" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C282">
         <v>12</v>
@@ -5613,11 +5564,11 @@
       </c>
     </row>
     <row r="283" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A283" s="3" t="s">
-        <v>254</v>
+      <c r="A283" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B283" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C283">
         <v>12</v>
@@ -5628,7 +5579,7 @@
     </row>
     <row r="284" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="B284" t="s">
         <v>393</v>
@@ -5641,11 +5592,11 @@
       </c>
     </row>
     <row r="285" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A285" s="2" t="s">
-        <v>256</v>
+      <c r="A285" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="B285" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C285">
         <v>12</v>
@@ -5655,11 +5606,11 @@
       </c>
     </row>
     <row r="286" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A286" s="2" t="s">
-        <v>257</v>
+      <c r="A286" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B286" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C286">
         <v>12</v>
@@ -5669,11 +5620,11 @@
       </c>
     </row>
     <row r="287" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
-        <v>11</v>
+      <c r="A287" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="B287" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C287">
         <v>12</v>
@@ -5683,11 +5634,11 @@
       </c>
     </row>
     <row r="288" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
-        <v>258</v>
+      <c r="A288" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="B288" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C288">
         <v>12</v>
@@ -5698,10 +5649,10 @@
     </row>
     <row r="289" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="B289" t="s">
-        <v>393</v>
+        <v>162</v>
       </c>
       <c r="C289">
         <v>12</v>
@@ -5712,7 +5663,7 @@
     </row>
     <row r="290" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="B290" t="s">
         <v>393</v>
@@ -5725,11 +5676,11 @@
       </c>
     </row>
     <row r="291" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A291" s="1" t="s">
-        <v>261</v>
+      <c r="A291" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="B291" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C291">
         <v>12</v>
@@ -5740,7 +5691,7 @@
     </row>
     <row r="292" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="B292" t="s">
         <v>394</v>
@@ -5753,11 +5704,11 @@
       </c>
     </row>
     <row r="293" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A293" s="2" t="s">
-        <v>263</v>
+      <c r="A293" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="B293" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C293">
         <v>12</v>
@@ -5768,7 +5719,7 @@
     </row>
     <row r="294" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="B294" t="s">
         <v>394</v>
@@ -5781,11 +5732,11 @@
       </c>
     </row>
     <row r="295" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
-        <v>265</v>
+      <c r="A295" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="B295" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C295">
         <v>12</v>
@@ -5796,10 +5747,10 @@
     </row>
     <row r="296" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="B296" t="s">
-        <v>162</v>
+        <v>393</v>
       </c>
       <c r="C296">
         <v>12</v>
@@ -5810,7 +5761,7 @@
     </row>
     <row r="297" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="B297" t="s">
         <v>392</v>
@@ -5824,7 +5775,7 @@
     </row>
     <row r="298" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="B298" t="s">
         <v>394</v>
@@ -5837,11 +5788,11 @@
       </c>
     </row>
     <row r="299" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A299" s="3" t="s">
-        <v>269</v>
+      <c r="A299" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="B299" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C299">
         <v>12</v>
@@ -5851,11 +5802,11 @@
       </c>
     </row>
     <row r="300" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A300" s="2" t="s">
-        <v>270</v>
+      <c r="A300" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="B300" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C300">
         <v>12</v>
@@ -5865,11 +5816,11 @@
       </c>
     </row>
     <row r="301" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A301" s="3" t="s">
-        <v>271</v>
+      <c r="A301" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="B301" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C301">
         <v>12</v>
@@ -5879,11 +5830,11 @@
       </c>
     </row>
     <row r="302" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
-        <v>272</v>
+      <c r="A302" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="B302" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C302">
         <v>13</v>
@@ -5894,7 +5845,7 @@
     </row>
     <row r="303" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="B303" t="s">
         <v>393</v>
@@ -5907,11 +5858,11 @@
       </c>
     </row>
     <row r="304" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A304" s="2" t="s">
-        <v>274</v>
+      <c r="A304" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="B304" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C304">
         <v>13</v>
@@ -5921,11 +5872,11 @@
       </c>
     </row>
     <row r="305" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
-        <v>275</v>
+      <c r="A305" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="B305" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C305">
         <v>13</v>
@@ -5936,7 +5887,7 @@
     </row>
     <row r="306" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="B306" t="s">
         <v>392</v>
@@ -5949,11 +5900,11 @@
       </c>
     </row>
     <row r="307" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A307" s="3" t="s">
-        <v>277</v>
+      <c r="A307" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="B307" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C307">
         <v>13</v>
@@ -5964,7 +5915,7 @@
     </row>
     <row r="308" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="B308" t="s">
         <v>392</v>
@@ -5978,7 +5929,7 @@
     </row>
     <row r="309" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="B309" t="s">
         <v>393</v>
@@ -5991,11 +5942,11 @@
       </c>
     </row>
     <row r="310" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
-        <v>280</v>
+      <c r="A310" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="B310" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C310">
         <v>13</v>
@@ -6006,7 +5957,7 @@
     </row>
     <row r="311" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="B311" t="s">
         <v>394</v>
@@ -6020,7 +5971,7 @@
     </row>
     <row r="312" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="B312" t="s">
         <v>393</v>
@@ -6033,11 +5984,11 @@
       </c>
     </row>
     <row r="313" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A313" s="2" t="s">
-        <v>282</v>
+      <c r="A313" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="B313" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C313">
         <v>13</v>
@@ -6047,11 +5998,11 @@
       </c>
     </row>
     <row r="314" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A314" s="3" t="s">
-        <v>283</v>
+      <c r="A314" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="B314" t="s">
-        <v>162</v>
+        <v>392</v>
       </c>
       <c r="C314">
         <v>13</v>
@@ -6062,7 +6013,7 @@
     </row>
     <row r="315" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="B315" t="s">
         <v>393</v>
@@ -6075,11 +6026,11 @@
       </c>
     </row>
     <row r="316" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A316" s="3" t="s">
-        <v>285</v>
+      <c r="A316" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="B316" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C316">
         <v>13</v>
@@ -6089,11 +6040,11 @@
       </c>
     </row>
     <row r="317" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
-        <v>286</v>
+      <c r="A317" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="B317" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="C317">
         <v>13</v>
@@ -6103,11 +6054,11 @@
       </c>
     </row>
     <row r="318" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
-        <v>287</v>
+      <c r="A318" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="B318" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C318">
         <v>13</v>
@@ -6117,11 +6068,11 @@
       </c>
     </row>
     <row r="319" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
-        <v>288</v>
+      <c r="A319" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="B319" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C319">
         <v>13</v>
@@ -6132,7 +6083,7 @@
     </row>
     <row r="320" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="B320" t="s">
         <v>392</v>
@@ -6145,11 +6096,11 @@
       </c>
     </row>
     <row r="321" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A321" s="3" t="s">
-        <v>290</v>
+      <c r="A321" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="B321" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C321">
         <v>13</v>
@@ -6159,11 +6110,11 @@
       </c>
     </row>
     <row r="322" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A322" s="2" t="s">
-        <v>291</v>
+      <c r="A322" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="B322" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C322">
         <v>13</v>
@@ -6173,11 +6124,11 @@
       </c>
     </row>
     <row r="323" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
-        <v>292</v>
+      <c r="A323" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="B323" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C323">
         <v>13</v>
@@ -6187,11 +6138,11 @@
       </c>
     </row>
     <row r="324" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A324" s="2" t="s">
-        <v>293</v>
+      <c r="A324" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B324" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C324">
         <v>13</v>
@@ -6201,11 +6152,11 @@
       </c>
     </row>
     <row r="325" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
-        <v>294</v>
+      <c r="A325" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="B325" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C325">
         <v>13</v>
@@ -6216,7 +6167,7 @@
     </row>
     <row r="326" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="B326" t="s">
         <v>392</v>
@@ -6230,7 +6181,7 @@
     </row>
     <row r="327" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>296</v>
+        <v>43</v>
       </c>
       <c r="B327" t="s">
         <v>393</v>
@@ -6244,7 +6195,7 @@
     </row>
     <row r="328" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="B328" t="s">
         <v>393</v>
@@ -6258,7 +6209,7 @@
     </row>
     <row r="329" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="B329" t="s">
         <v>394</v>
@@ -6271,11 +6222,11 @@
       </c>
     </row>
     <row r="330" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A330" s="2" t="s">
-        <v>299</v>
+      <c r="A330" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="B330" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C330">
         <v>14</v>
@@ -6286,7 +6237,7 @@
     </row>
     <row r="331" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B331" t="s">
         <v>392</v>
@@ -6300,7 +6251,7 @@
     </row>
     <row r="332" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="B332" t="s">
         <v>394</v>
@@ -6313,11 +6264,11 @@
       </c>
     </row>
     <row r="333" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A333" s="2" t="s">
-        <v>302</v>
+      <c r="A333" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="B333" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C333">
         <v>14</v>
@@ -6327,11 +6278,11 @@
       </c>
     </row>
     <row r="334" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A334" s="3" t="s">
-        <v>50</v>
+      <c r="A334" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="B334" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C334">
         <v>14</v>
@@ -6341,11 +6292,11 @@
       </c>
     </row>
     <row r="335" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A335" s="2" t="s">
-        <v>303</v>
+      <c r="A335" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="B335" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C335">
         <v>14</v>
@@ -6355,11 +6306,11 @@
       </c>
     </row>
     <row r="336" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
-        <v>304</v>
+      <c r="A336" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="B336" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C336">
         <v>14</v>
@@ -6370,7 +6321,7 @@
     </row>
     <row r="337" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="B337" t="s">
         <v>393</v>
@@ -6383,11 +6334,11 @@
       </c>
     </row>
     <row r="338" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
-        <v>306</v>
+      <c r="A338" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="B338" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C338">
         <v>14</v>
@@ -6398,7 +6349,7 @@
     </row>
     <row r="339" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="B339" t="s">
         <v>392</v>
@@ -6411,11 +6362,11 @@
       </c>
     </row>
     <row r="340" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A340" s="3" t="s">
-        <v>308</v>
+      <c r="A340" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="B340" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C340">
         <v>14</v>
@@ -6425,11 +6376,11 @@
       </c>
     </row>
     <row r="341" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
-        <v>309</v>
+      <c r="A341" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="B341" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C341">
         <v>14</v>
@@ -6439,11 +6390,11 @@
       </c>
     </row>
     <row r="342" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A342" s="3" t="s">
-        <v>310</v>
+      <c r="A342" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="B342" t="s">
-        <v>162</v>
+        <v>392</v>
       </c>
       <c r="C342">
         <v>14</v>
@@ -6453,11 +6404,11 @@
       </c>
     </row>
     <row r="343" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A343" s="3" t="s">
-        <v>311</v>
+      <c r="A343" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="B343" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C343">
         <v>14</v>
@@ -6467,11 +6418,11 @@
       </c>
     </row>
     <row r="344" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A344" s="2" t="s">
-        <v>312</v>
+      <c r="A344" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="B344" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C344">
         <v>14</v>
@@ -6482,7 +6433,7 @@
     </row>
     <row r="345" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B345" t="s">
         <v>392</v>
@@ -6495,11 +6446,11 @@
       </c>
     </row>
     <row r="346" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
-        <v>314</v>
+      <c r="A346" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="B346" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C346">
         <v>14</v>
@@ -6509,11 +6460,11 @@
       </c>
     </row>
     <row r="347" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
-        <v>315</v>
+      <c r="A347" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="B347" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C347">
         <v>14</v>
@@ -6523,11 +6474,11 @@
       </c>
     </row>
     <row r="348" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A348" s="3" t="s">
-        <v>316</v>
+      <c r="A348" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="B348" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C348">
         <v>14</v>
@@ -6537,11 +6488,11 @@
       </c>
     </row>
     <row r="349" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
-        <v>46</v>
+      <c r="A349" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="B349" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C349">
         <v>14</v>
@@ -6551,11 +6502,11 @@
       </c>
     </row>
     <row r="350" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A350" s="2" t="s">
-        <v>317</v>
+      <c r="A350" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="B350" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C350">
         <v>14</v>
@@ -6565,11 +6516,11 @@
       </c>
     </row>
     <row r="351" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A351" s="2" t="s">
-        <v>318</v>
+      <c r="A351" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="B351" t="s">
-        <v>392</v>
+        <v>162</v>
       </c>
       <c r="C351">
         <v>14</v>
@@ -6579,11 +6530,11 @@
       </c>
     </row>
     <row r="352" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A352" s="3" t="s">
-        <v>43</v>
+      <c r="A352" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B352" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C352">
         <v>15</v>
@@ -6593,11 +6544,11 @@
       </c>
     </row>
     <row r="353" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A353" s="3" t="s">
-        <v>319</v>
+      <c r="A353" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="B353" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C353">
         <v>15</v>
@@ -6607,11 +6558,11 @@
       </c>
     </row>
     <row r="354" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
-        <v>320</v>
+      <c r="A354" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="B354" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C354">
         <v>15</v>
@@ -6621,11 +6572,11 @@
       </c>
     </row>
     <row r="355" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A355" s="3" t="s">
-        <v>321</v>
+      <c r="A355" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B355" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C355">
         <v>15</v>
@@ -6636,7 +6587,7 @@
     </row>
     <row r="356" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B356" t="s">
         <v>392</v>
@@ -6650,7 +6601,7 @@
     </row>
     <row r="357" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B357" t="s">
         <v>394</v>
@@ -6663,11 +6614,11 @@
       </c>
     </row>
     <row r="358" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
-        <v>323</v>
+      <c r="A358" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="B358" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C358">
         <v>15</v>
@@ -6677,11 +6628,11 @@
       </c>
     </row>
     <row r="359" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A359" s="1" t="s">
-        <v>324</v>
+      <c r="A359" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="B359" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C359">
         <v>15</v>
@@ -6691,11 +6642,11 @@
       </c>
     </row>
     <row r="360" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
-        <v>325</v>
+      <c r="A360" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="B360" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C360">
         <v>15</v>
@@ -6705,11 +6656,11 @@
       </c>
     </row>
     <row r="361" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A361" s="2" t="s">
-        <v>326</v>
+      <c r="A361" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B361" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C361">
         <v>15</v>
@@ -6719,11 +6670,11 @@
       </c>
     </row>
     <row r="362" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A362" s="3" t="s">
-        <v>327</v>
+      <c r="A362" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="B362" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C362">
         <v>15</v>
@@ -6733,11 +6684,11 @@
       </c>
     </row>
     <row r="363" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A363" s="2" t="s">
-        <v>328</v>
+      <c r="A363" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="B363" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C363">
         <v>15</v>
@@ -6748,7 +6699,7 @@
     </row>
     <row r="364" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="B364" t="s">
         <v>392</v>
@@ -6761,11 +6712,11 @@
       </c>
     </row>
     <row r="365" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
-        <v>330</v>
+      <c r="A365" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="B365" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="C365">
         <v>15</v>
@@ -6775,11 +6726,11 @@
       </c>
     </row>
     <row r="366" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A366" s="3" t="s">
-        <v>331</v>
+      <c r="A366" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B366" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C366">
         <v>15</v>
@@ -6789,11 +6740,11 @@
       </c>
     </row>
     <row r="367" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A367" s="2" t="s">
-        <v>332</v>
+      <c r="A367" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B367" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C367">
         <v>15</v>
@@ -6803,11 +6754,11 @@
       </c>
     </row>
     <row r="368" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
-        <v>333</v>
+      <c r="A368" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="B368" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C368">
         <v>15</v>
@@ -6817,11 +6768,11 @@
       </c>
     </row>
     <row r="369" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A369" s="3" t="s">
-        <v>334</v>
+      <c r="A369" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="B369" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C369">
         <v>15</v>
@@ -6832,7 +6783,7 @@
     </row>
     <row r="370" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="B370" t="s">
         <v>392</v>
@@ -6845,11 +6796,11 @@
       </c>
     </row>
     <row r="371" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A371" s="2" t="s">
-        <v>336</v>
+      <c r="A371" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="B371" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C371">
         <v>15</v>
@@ -6859,11 +6810,11 @@
       </c>
     </row>
     <row r="372" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A372" s="3" t="s">
-        <v>337</v>
+      <c r="A372" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="B372" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C372">
         <v>15</v>
@@ -6873,11 +6824,11 @@
       </c>
     </row>
     <row r="373" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
-        <v>338</v>
+      <c r="A373" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="B373" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C373">
         <v>15</v>
@@ -6887,11 +6838,11 @@
       </c>
     </row>
     <row r="374" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A374" s="2" t="s">
-        <v>339</v>
+      <c r="A374" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="B374" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C374">
         <v>15</v>
@@ -6901,11 +6852,11 @@
       </c>
     </row>
     <row r="375" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
-        <v>340</v>
+      <c r="A375" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="B375" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C375">
         <v>15</v>
@@ -6915,11 +6866,11 @@
       </c>
     </row>
     <row r="376" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A376" s="3" t="s">
-        <v>341</v>
+      <c r="A376" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="B376" t="s">
-        <v>162</v>
+        <v>394</v>
       </c>
       <c r="C376">
         <v>15</v>
@@ -6930,7 +6881,7 @@
     </row>
     <row r="377" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>2</v>
+        <v>361</v>
       </c>
       <c r="B377" t="s">
         <v>394</v>
@@ -6944,7 +6895,7 @@
     </row>
     <row r="378" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="B378" t="s">
         <v>392</v>
@@ -6957,11 +6908,11 @@
       </c>
     </row>
     <row r="379" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A379" s="3" t="s">
-        <v>343</v>
+      <c r="A379" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="B379" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C379">
         <v>16</v>
@@ -6971,11 +6922,11 @@
       </c>
     </row>
     <row r="380" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
-        <v>45</v>
+      <c r="A380" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="B380" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C380">
         <v>16</v>
@@ -6985,11 +6936,11 @@
       </c>
     </row>
     <row r="381" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A381" s="2" t="s">
-        <v>344</v>
+      <c r="A381" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="B381" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C381">
         <v>16</v>
@@ -6999,11 +6950,11 @@
       </c>
     </row>
     <row r="382" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A382" s="1" t="s">
-        <v>35</v>
+      <c r="A382" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="B382" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C382">
         <v>16</v>
@@ -7013,11 +6964,11 @@
       </c>
     </row>
     <row r="383" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A383" s="2" t="s">
-        <v>345</v>
+      <c r="A383" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="B383" t="s">
-        <v>392</v>
+        <v>162</v>
       </c>
       <c r="C383">
         <v>16</v>
@@ -7027,11 +6978,11 @@
       </c>
     </row>
     <row r="384" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A384" s="3" t="s">
-        <v>346</v>
+      <c r="A384" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="B384" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C384">
         <v>16</v>
@@ -7042,7 +6993,7 @@
     </row>
     <row r="385" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="B385" t="s">
         <v>392</v>
@@ -7055,11 +7006,11 @@
       </c>
     </row>
     <row r="386" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A386" s="3" t="s">
-        <v>13</v>
+      <c r="A386" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B386" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C386">
         <v>16</v>
@@ -7069,11 +7020,11 @@
       </c>
     </row>
     <row r="387" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A387" s="2" t="s">
-        <v>348</v>
+      <c r="A387" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="B387" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C387">
         <v>16</v>
@@ -7084,7 +7035,7 @@
     </row>
     <row r="388" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="B388" t="s">
         <v>393</v>
@@ -7097,11 +7048,11 @@
       </c>
     </row>
     <row r="389" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A389" s="2" t="s">
-        <v>350</v>
+      <c r="A389" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="B389" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C389">
         <v>16</v>
@@ -7112,10 +7063,10 @@
     </row>
     <row r="390" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="B390" t="s">
-        <v>162</v>
+        <v>393</v>
       </c>
       <c r="C390">
         <v>16</v>
@@ -7125,11 +7076,11 @@
       </c>
     </row>
     <row r="391" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A391" s="1" t="s">
-        <v>23</v>
+      <c r="A391" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="B391" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C391">
         <v>16</v>
@@ -7139,11 +7090,11 @@
       </c>
     </row>
     <row r="392" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A392" s="1" t="s">
-        <v>49</v>
+      <c r="A392" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="B392" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C392">
         <v>16</v>
@@ -7153,11 +7104,11 @@
       </c>
     </row>
     <row r="393" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A393" s="2" t="s">
-        <v>352</v>
+      <c r="A393" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="B393" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C393">
         <v>16</v>
@@ -7167,11 +7118,11 @@
       </c>
     </row>
     <row r="394" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A394" s="2" t="s">
-        <v>353</v>
+      <c r="A394" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="B394" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C394">
         <v>16</v>
@@ -7181,11 +7132,11 @@
       </c>
     </row>
     <row r="395" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A395" s="2" t="s">
-        <v>354</v>
+      <c r="A395" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B395" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C395">
         <v>16</v>
@@ -7195,11 +7146,11 @@
       </c>
     </row>
     <row r="396" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A396" s="1" t="s">
-        <v>355</v>
+      <c r="A396" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="B396" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C396">
         <v>16</v>
@@ -7210,7 +7161,7 @@
     </row>
     <row r="397" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="B397" t="s">
         <v>394</v>
@@ -7224,7 +7175,7 @@
     </row>
     <row r="398" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="B398" t="s">
         <v>393</v>
@@ -7237,11 +7188,11 @@
       </c>
     </row>
     <row r="399" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A399" s="3" t="s">
-        <v>358</v>
+      <c r="A399" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="B399" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C399">
         <v>16</v>
@@ -7251,11 +7202,11 @@
       </c>
     </row>
     <row r="400" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A400" s="3" t="s">
-        <v>359</v>
+      <c r="A400" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="B400" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C400">
         <v>16</v>
@@ -7265,11 +7216,11 @@
       </c>
     </row>
     <row r="401" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A401" s="1" t="s">
-        <v>360</v>
+      <c r="A401" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B401" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C401">
         <v>16</v>
@@ -7280,7 +7231,7 @@
     </row>
     <row r="402" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>361</v>
+        <v>38</v>
       </c>
       <c r="B402" t="s">
         <v>394</v>
@@ -7293,11 +7244,11 @@
       </c>
     </row>
     <row r="403" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A403" s="2" t="s">
-        <v>362</v>
+      <c r="A403" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B403" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C403">
         <v>17</v>
@@ -7307,11 +7258,11 @@
       </c>
     </row>
     <row r="404" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A404" s="1" t="s">
-        <v>363</v>
+      <c r="A404" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B404" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C404">
         <v>17</v>
@@ -7322,7 +7273,7 @@
     </row>
     <row r="405" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="B405" t="s">
         <v>392</v>
@@ -7336,7 +7287,7 @@
     </row>
     <row r="406" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="B406" t="s">
         <v>394</v>
@@ -7349,11 +7300,11 @@
       </c>
     </row>
     <row r="407" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A407" s="3" t="s">
-        <v>366</v>
+      <c r="A407" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="B407" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C407">
         <v>17</v>
@@ -7364,10 +7315,10 @@
     </row>
     <row r="408" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
-        <v>367</v>
+        <v>181</v>
       </c>
       <c r="B408" t="s">
-        <v>162</v>
+        <v>393</v>
       </c>
       <c r="C408">
         <v>17</v>
@@ -7377,11 +7328,11 @@
       </c>
     </row>
     <row r="409" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A409" s="1" t="s">
-        <v>368</v>
+      <c r="A409" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="B409" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C409">
         <v>17</v>
@@ -7391,11 +7342,11 @@
       </c>
     </row>
     <row r="410" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A410" s="2" t="s">
-        <v>369</v>
+      <c r="A410" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="B410" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C410">
         <v>17</v>
@@ -7406,7 +7357,7 @@
     </row>
     <row r="411" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="B411" t="s">
         <v>392</v>
@@ -7419,11 +7370,11 @@
       </c>
     </row>
     <row r="412" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A412" s="1" t="s">
-        <v>370</v>
+      <c r="A412" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="B412" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C412">
         <v>17</v>
@@ -7433,11 +7384,11 @@
       </c>
     </row>
     <row r="413" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A413" s="3" t="s">
-        <v>371</v>
+      <c r="A413" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B413" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C413">
         <v>17</v>
@@ -7447,11 +7398,11 @@
       </c>
     </row>
     <row r="414" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A414" s="3" t="s">
-        <v>372</v>
+      <c r="A414" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B414" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C414">
         <v>17</v>
@@ -7462,10 +7413,10 @@
     </row>
     <row r="415" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>373</v>
+        <v>276</v>
       </c>
       <c r="B415" t="s">
-        <v>393</v>
+        <v>162</v>
       </c>
       <c r="C415">
         <v>17</v>
@@ -7475,11 +7426,11 @@
       </c>
     </row>
     <row r="416" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A416" s="2" t="s">
-        <v>374</v>
+      <c r="A416" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B416" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C416">
         <v>17</v>
@@ -7490,7 +7441,7 @@
     </row>
     <row r="417" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
-        <v>375</v>
+        <v>238</v>
       </c>
       <c r="B417" t="s">
         <v>392</v>
@@ -7503,11 +7454,11 @@
       </c>
     </row>
     <row r="418" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A418" s="3" t="s">
-        <v>376</v>
+      <c r="A418" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B418" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C418">
         <v>17</v>
@@ -7517,11 +7468,11 @@
       </c>
     </row>
     <row r="419" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A419" s="1" t="s">
-        <v>377</v>
+      <c r="A419" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B419" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C419">
         <v>17</v>
@@ -7532,7 +7483,7 @@
     </row>
     <row r="420" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B420" t="s">
         <v>394</v>
@@ -7545,11 +7496,11 @@
       </c>
     </row>
     <row r="421" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A421" s="3" t="s">
-        <v>378</v>
+      <c r="A421" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="B421" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C421">
         <v>17</v>
@@ -7560,7 +7511,7 @@
     </row>
     <row r="422" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
-        <v>379</v>
+        <v>265</v>
       </c>
       <c r="B422" t="s">
         <v>394</v>
@@ -7574,7 +7525,7 @@
     </row>
     <row r="423" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>380</v>
+        <v>123</v>
       </c>
       <c r="B423" t="s">
         <v>393</v>
@@ -7587,11 +7538,11 @@
       </c>
     </row>
     <row r="424" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A424" s="1" t="s">
-        <v>381</v>
+      <c r="A424" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="B424" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C424">
         <v>17</v>
@@ -7601,11 +7552,11 @@
       </c>
     </row>
     <row r="425" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A425" s="2" t="s">
-        <v>382</v>
+      <c r="A425" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B425" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C425">
         <v>17</v>
@@ -7615,11 +7566,11 @@
       </c>
     </row>
     <row r="426" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A426" s="2" t="s">
-        <v>51</v>
+      <c r="A426" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B426" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C426">
         <v>17</v>
@@ -7629,11 +7580,11 @@
       </c>
     </row>
     <row r="427" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A427" s="1" t="s">
-        <v>38</v>
+      <c r="A427" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B427" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C427">
         <v>18</v>
@@ -7643,11 +7594,11 @@
       </c>
     </row>
     <row r="428" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A428" s="1" t="s">
-        <v>48</v>
+      <c r="A428" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="B428" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C428">
         <v>18</v>
@@ -7657,11 +7608,11 @@
       </c>
     </row>
     <row r="429" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A429" s="2" t="s">
-        <v>173</v>
+      <c r="A429" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B429" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C429">
         <v>18</v>
@@ -7671,11 +7622,11 @@
       </c>
     </row>
     <row r="430" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A430" s="2" t="s">
-        <v>340</v>
+      <c r="A430" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B430" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C430">
         <v>18</v>
@@ -7685,11 +7636,11 @@
       </c>
     </row>
     <row r="431" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A431" s="1" t="s">
-        <v>317</v>
+      <c r="A431" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="B431" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C431">
         <v>18</v>
@@ -7699,11 +7650,11 @@
       </c>
     </row>
     <row r="432" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A432" s="2" t="s">
-        <v>199</v>
+      <c r="A432" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="B432" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C432">
         <v>18</v>
@@ -7713,11 +7664,11 @@
       </c>
     </row>
     <row r="433" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A433" s="3" t="s">
-        <v>181</v>
+      <c r="A433" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="B433" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C433">
         <v>18</v>
@@ -7728,7 +7679,7 @@
     </row>
     <row r="434" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="B434" t="s">
         <v>393</v>
@@ -7741,11 +7692,11 @@
       </c>
     </row>
     <row r="435" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A435" s="3" t="s">
-        <v>281</v>
+      <c r="A435" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B435" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C435">
         <v>18</v>
@@ -7756,7 +7707,7 @@
     </row>
     <row r="436" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="B436" t="s">
         <v>392</v>
@@ -7769,11 +7720,11 @@
       </c>
     </row>
     <row r="437" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A437" s="2" t="s">
-        <v>383</v>
+      <c r="A437" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="B437" t="s">
-        <v>392</v>
+        <v>162</v>
       </c>
       <c r="C437">
         <v>18</v>
@@ -7783,11 +7734,11 @@
       </c>
     </row>
     <row r="438" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A438" s="1" t="s">
-        <v>59</v>
+      <c r="A438" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="B438" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C438">
         <v>18</v>
@@ -7798,7 +7749,7 @@
     </row>
     <row r="439" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="B439" t="s">
         <v>394</v>
@@ -7811,11 +7762,11 @@
       </c>
     </row>
     <row r="440" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A440" s="3" t="s">
-        <v>276</v>
+      <c r="A440" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="B440" t="s">
-        <v>162</v>
+        <v>394</v>
       </c>
       <c r="C440">
         <v>18</v>
@@ -7825,11 +7776,11 @@
       </c>
     </row>
     <row r="441" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A441" s="3" t="s">
-        <v>85</v>
+      <c r="A441" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B441" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C441">
         <v>18</v>
@@ -7840,7 +7791,7 @@
     </row>
     <row r="442" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B442" t="s">
         <v>392</v>
@@ -7853,11 +7804,11 @@
       </c>
     </row>
     <row r="443" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A443" s="1" t="s">
-        <v>159</v>
+      <c r="A443" s="3" t="s">
+        <v>385</v>
       </c>
       <c r="B443" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C443">
         <v>18</v>
@@ -7867,11 +7818,11 @@
       </c>
     </row>
     <row r="444" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A444" s="2" t="s">
-        <v>163</v>
+      <c r="A444" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="B444" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C444">
         <v>18</v>
@@ -7882,7 +7833,7 @@
     </row>
     <row r="445" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="B445" t="s">
         <v>394</v>
@@ -7896,7 +7847,7 @@
     </row>
     <row r="446" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
-        <v>322</v>
+        <v>147</v>
       </c>
       <c r="B446" t="s">
         <v>392</v>
@@ -7909,11 +7860,11 @@
       </c>
     </row>
     <row r="447" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A447" s="1" t="s">
-        <v>265</v>
+      <c r="A447" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="B447" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C447">
         <v>18</v>
@@ -7924,7 +7875,7 @@
     </row>
     <row r="448" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="B448" t="s">
         <v>393</v>
@@ -7937,11 +7888,11 @@
       </c>
     </row>
     <row r="449" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A449" s="3" t="s">
-        <v>363</v>
+      <c r="A449" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B449" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C449">
         <v>18</v>
@@ -7951,11 +7902,11 @@
       </c>
     </row>
     <row r="450" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A450" s="1" t="s">
-        <v>61</v>
+      <c r="A450" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B450" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C450">
         <v>18</v>
@@ -7965,11 +7916,11 @@
       </c>
     </row>
     <row r="451" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A451" s="3" t="s">
-        <v>76</v>
+      <c r="A451" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="B451" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C451">
         <v>18</v>
@@ -7979,11 +7930,11 @@
       </c>
     </row>
     <row r="452" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A452" s="2" t="s">
-        <v>104</v>
+      <c r="A452" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="B452" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C452">
         <v>19</v>
@@ -7994,7 +7945,7 @@
     </row>
     <row r="453" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
-        <v>372</v>
+        <v>305</v>
       </c>
       <c r="B453" t="s">
         <v>392</v>
@@ -8007,11 +7958,11 @@
       </c>
     </row>
     <row r="454" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A454" s="1" t="s">
-        <v>88</v>
+      <c r="A454" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B454" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C454">
         <v>19</v>
@@ -8022,10 +7973,10 @@
     </row>
     <row r="455" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>9</v>
+        <v>306</v>
       </c>
       <c r="B455" t="s">
-        <v>393</v>
+        <v>162</v>
       </c>
       <c r="C455">
         <v>19</v>
@@ -8035,11 +7986,11 @@
       </c>
     </row>
     <row r="456" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A456" s="2" t="s">
-        <v>241</v>
+      <c r="A456" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B456" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C456">
         <v>19</v>
@@ -8049,11 +8000,11 @@
       </c>
     </row>
     <row r="457" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A457" s="1" t="s">
-        <v>261</v>
+      <c r="A457" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="B457" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C457">
         <v>19</v>
@@ -8063,11 +8014,11 @@
       </c>
     </row>
     <row r="458" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A458" s="2" t="s">
-        <v>384</v>
+      <c r="A458" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B458" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C458">
         <v>19</v>
@@ -8077,11 +8028,11 @@
       </c>
     </row>
     <row r="459" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A459" s="3" t="s">
-        <v>156</v>
+      <c r="A459" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="B459" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C459">
         <v>19</v>
@@ -8091,11 +8042,11 @@
       </c>
     </row>
     <row r="460" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A460" s="2" t="s">
-        <v>73</v>
+      <c r="A460" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B460" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C460">
         <v>19</v>
@@ -8105,11 +8056,11 @@
       </c>
     </row>
     <row r="461" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A461" s="2" t="s">
-        <v>128</v>
+      <c r="A461" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="B461" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C461">
         <v>19</v>
@@ -8119,11 +8070,11 @@
       </c>
     </row>
     <row r="462" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A462" s="3" t="s">
-        <v>368</v>
+      <c r="A462" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="B462" t="s">
-        <v>162</v>
+        <v>392</v>
       </c>
       <c r="C462">
         <v>19</v>
@@ -8133,11 +8084,11 @@
       </c>
     </row>
     <row r="463" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A463" s="3" t="s">
-        <v>247</v>
+      <c r="A463" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="B463" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C463">
         <v>19</v>
@@ -8148,7 +8099,7 @@
     </row>
     <row r="464" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B464" t="s">
         <v>394</v>
@@ -8161,11 +8112,11 @@
       </c>
     </row>
     <row r="465" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A465" s="1" t="s">
-        <v>275</v>
+      <c r="A465" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="B465" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C465">
         <v>19</v>
@@ -8175,11 +8126,11 @@
       </c>
     </row>
     <row r="466" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A466" s="1" t="s">
-        <v>137</v>
+      <c r="A466" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="B466" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C466">
         <v>19</v>
@@ -8189,11 +8140,11 @@
       </c>
     </row>
     <row r="467" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A467" s="2" t="s">
-        <v>218</v>
+      <c r="A467" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B467" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C467">
         <v>19</v>
@@ -8203,11 +8154,11 @@
       </c>
     </row>
     <row r="468" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A468" s="3" t="s">
-        <v>385</v>
+      <c r="A468" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="B468" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C468">
         <v>19</v>
@@ -8217,11 +8168,11 @@
       </c>
     </row>
     <row r="469" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A469" s="3" t="s">
-        <v>201</v>
+      <c r="A469" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B469" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C469">
         <v>19</v>
@@ -8231,11 +8182,11 @@
       </c>
     </row>
     <row r="470" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A470" s="1" t="s">
-        <v>126</v>
+      <c r="A470" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="B470" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C470">
         <v>19</v>
@@ -8245,11 +8196,11 @@
       </c>
     </row>
     <row r="471" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A471" s="2" t="s">
-        <v>147</v>
+      <c r="A471" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="B471" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C471">
         <v>19</v>
@@ -8259,11 +8210,11 @@
       </c>
     </row>
     <row r="472" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A472" s="3" t="s">
-        <v>332</v>
+      <c r="A472" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B472" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C472">
         <v>19</v>
@@ -8274,7 +8225,7 @@
     </row>
     <row r="473" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="B473" t="s">
         <v>393</v>
@@ -8288,7 +8239,7 @@
     </row>
     <row r="474" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="B474" t="s">
         <v>394</v>
@@ -8302,7 +8253,7 @@
     </row>
     <row r="475" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B475" t="s">
         <v>392</v>
@@ -8315,11 +8266,11 @@
       </c>
     </row>
     <row r="476" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A476" s="1" t="s">
-        <v>207</v>
+      <c r="A476" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="B476" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C476">
         <v>19</v>
@@ -8329,11 +8280,11 @@
       </c>
     </row>
     <row r="477" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A477" s="3" t="s">
-        <v>217</v>
+      <c r="A477" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="B477" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C477">
         <v>20</v>
@@ -8343,11 +8294,11 @@
       </c>
     </row>
     <row r="478" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A478" s="2" t="s">
-        <v>305</v>
+      <c r="A478" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="B478" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C478">
         <v>20</v>
@@ -8358,7 +8309,7 @@
     </row>
     <row r="479" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
-        <v>72</v>
+        <v>381</v>
       </c>
       <c r="B479" t="s">
         <v>392</v>
@@ -8371,11 +8322,11 @@
       </c>
     </row>
     <row r="480" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A480" s="3" t="s">
-        <v>306</v>
+      <c r="A480" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B480" t="s">
-        <v>162</v>
+        <v>392</v>
       </c>
       <c r="C480">
         <v>20</v>
@@ -8386,7 +8337,7 @@
     </row>
     <row r="481" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>3</v>
+        <v>308</v>
       </c>
       <c r="B481" t="s">
         <v>394</v>
@@ -8399,11 +8350,11 @@
       </c>
     </row>
     <row r="482" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A482" s="2" t="s">
-        <v>367</v>
+      <c r="A482" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="B482" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C482">
         <v>20</v>
@@ -8413,11 +8364,11 @@
       </c>
     </row>
     <row r="483" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A483" s="1" t="s">
-        <v>66</v>
+      <c r="A483" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="B483" t="s">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="C483">
         <v>20</v>
@@ -8428,7 +8379,7 @@
     </row>
     <row r="484" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>375</v>
+        <v>193</v>
       </c>
       <c r="B484" t="s">
         <v>394</v>
@@ -8441,11 +8392,11 @@
       </c>
     </row>
     <row r="485" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A485" s="1" t="s">
-        <v>49</v>
+      <c r="A485" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B485" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C485">
         <v>20</v>
@@ -8456,7 +8407,7 @@
     </row>
     <row r="486" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="B486" t="s">
         <v>394</v>
@@ -8469,11 +8420,11 @@
       </c>
     </row>
     <row r="487" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A487" s="2" t="s">
-        <v>182</v>
+      <c r="A487" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="B487" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C487">
         <v>20</v>
@@ -8484,7 +8435,7 @@
     </row>
     <row r="488" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="B488" t="s">
         <v>394</v>
@@ -8497,11 +8448,11 @@
       </c>
     </row>
     <row r="489" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A489" s="1" t="s">
-        <v>4</v>
+      <c r="A489" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="B489" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C489">
         <v>20</v>
@@ -8511,11 +8462,11 @@
       </c>
     </row>
     <row r="490" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A490" s="3" t="s">
-        <v>278</v>
+      <c r="A490" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B490" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C490">
         <v>20</v>
@@ -8525,11 +8476,11 @@
       </c>
     </row>
     <row r="491" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A491" s="3" t="s">
-        <v>345</v>
+      <c r="A491" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="B491" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C491">
         <v>20</v>
@@ -8540,7 +8491,7 @@
     </row>
     <row r="492" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B492" t="s">
         <v>393</v>
@@ -8553,11 +8504,11 @@
       </c>
     </row>
     <row r="493" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A493" s="1" t="s">
-        <v>386</v>
+      <c r="A493" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B493" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C493">
         <v>20</v>
@@ -8567,11 +8518,11 @@
       </c>
     </row>
     <row r="494" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A494" s="2" t="s">
-        <v>5</v>
+      <c r="A494" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="B494" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C494">
         <v>20</v>
@@ -8581,11 +8532,11 @@
       </c>
     </row>
     <row r="495" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A495" s="2" t="s">
-        <v>191</v>
+      <c r="A495" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B495" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C495">
         <v>20</v>
@@ -8596,7 +8547,7 @@
     </row>
     <row r="496" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B496" t="s">
         <v>393</v>
@@ -8610,7 +8561,7 @@
     </row>
     <row r="497" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
-        <v>34</v>
+        <v>294</v>
       </c>
       <c r="B497" t="s">
         <v>392</v>
@@ -8623,11 +8574,11 @@
       </c>
     </row>
     <row r="498" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A498" s="3" t="s">
-        <v>282</v>
+      <c r="A498" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B498" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C498">
         <v>20</v>
@@ -8637,11 +8588,11 @@
       </c>
     </row>
     <row r="499" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A499" s="1" t="s">
-        <v>120</v>
+      <c r="A499" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B499" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C499">
         <v>20</v>
@@ -8651,11 +8602,11 @@
       </c>
     </row>
     <row r="500" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A500" s="2" t="s">
-        <v>78</v>
+      <c r="A500" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B500" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C500">
         <v>20</v>
@@ -8666,7 +8617,7 @@
     </row>
     <row r="501" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>321</v>
+        <v>196</v>
       </c>
       <c r="B501" t="s">
         <v>393</v>
@@ -8680,7 +8631,7 @@
     </row>
     <row r="502" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="B502" t="s">
         <v>394</v>
@@ -8693,11 +8644,11 @@
       </c>
     </row>
     <row r="503" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A503" s="1" t="s">
-        <v>330</v>
+      <c r="A503" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B503" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C503">
         <v>21</v>
@@ -8707,11 +8658,11 @@
       </c>
     </row>
     <row r="504" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A504" s="2" t="s">
-        <v>381</v>
+      <c r="A504" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="B504" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C504">
         <v>21</v>
@@ -8721,11 +8672,11 @@
       </c>
     </row>
     <row r="505" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A505" s="2" t="s">
-        <v>225</v>
+      <c r="A505" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B505" t="s">
-        <v>392</v>
+        <v>162</v>
       </c>
       <c r="C505">
         <v>21</v>
@@ -8735,11 +8686,11 @@
       </c>
     </row>
     <row r="506" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A506" s="1" t="s">
-        <v>308</v>
+      <c r="A506" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B506" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C506">
         <v>21</v>
@@ -8749,11 +8700,11 @@
       </c>
     </row>
     <row r="507" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A507" s="3" t="s">
-        <v>190</v>
+      <c r="A507" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="B507" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C507">
         <v>21</v>
@@ -8763,11 +8714,11 @@
       </c>
     </row>
     <row r="508" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A508" s="3" t="s">
-        <v>269</v>
+      <c r="A508" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="B508" t="s">
-        <v>162</v>
+        <v>392</v>
       </c>
       <c r="C508">
         <v>21</v>
@@ -8777,11 +8728,11 @@
       </c>
     </row>
     <row r="509" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A509" s="1" t="s">
-        <v>193</v>
+      <c r="A509" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="B509" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C509">
         <v>21</v>
@@ -8791,11 +8742,11 @@
       </c>
     </row>
     <row r="510" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A510" s="3" t="s">
-        <v>50</v>
+      <c r="A510" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B510" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C510">
         <v>21</v>
@@ -8806,7 +8757,7 @@
     </row>
     <row r="511" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="B511" t="s">
         <v>394</v>
@@ -8820,7 +8771,7 @@
     </row>
     <row r="512" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>387</v>
+        <v>243</v>
       </c>
       <c r="B512" t="s">
         <v>394</v>
@@ -8834,7 +8785,7 @@
     </row>
     <row r="513" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="B513" t="s">
         <v>394</v>
@@ -8847,11 +8798,11 @@
       </c>
     </row>
     <row r="514" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A514" s="2" t="s">
-        <v>204</v>
+      <c r="A514" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B514" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C514">
         <v>21</v>
@@ -8862,7 +8813,7 @@
     </row>
     <row r="515" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="B515" t="s">
         <v>392</v>
@@ -8875,11 +8826,11 @@
       </c>
     </row>
     <row r="516" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A516" s="2" t="s">
-        <v>192</v>
+      <c r="A516" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B516" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C516">
         <v>21</v>
@@ -8889,11 +8840,11 @@
       </c>
     </row>
     <row r="517" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A517" s="3" t="s">
-        <v>160</v>
+      <c r="A517" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B517" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C517">
         <v>21</v>
@@ -8904,7 +8855,7 @@
     </row>
     <row r="518" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="B518" t="s">
         <v>392</v>
@@ -8918,7 +8869,7 @@
     </row>
     <row r="519" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="B519" t="s">
         <v>393</v>
@@ -8932,7 +8883,7 @@
     </row>
     <row r="520" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="B520" t="s">
         <v>394</v>
@@ -8946,7 +8897,7 @@
     </row>
     <row r="521" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B521" t="s">
         <v>393</v>
@@ -8960,7 +8911,7 @@
     </row>
     <row r="522" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
-        <v>294</v>
+        <v>365</v>
       </c>
       <c r="B522" t="s">
         <v>392</v>
@@ -8974,7 +8925,7 @@
     </row>
     <row r="523" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="B523" t="s">
         <v>392</v>
@@ -8987,11 +8938,11 @@
       </c>
     </row>
     <row r="524" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A524" s="2" t="s">
-        <v>2</v>
+      <c r="A524" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="B524" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C524">
         <v>21</v>
@@ -9001,11 +8952,11 @@
       </c>
     </row>
     <row r="525" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A525" s="3" t="s">
-        <v>29</v>
+      <c r="A525" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="B525" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C525">
         <v>21</v>
@@ -9016,7 +8967,7 @@
     </row>
     <row r="526" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A526" s="3" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="B526" t="s">
         <v>393</v>
@@ -9029,11 +8980,11 @@
       </c>
     </row>
     <row r="527" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A527" s="1" t="s">
-        <v>290</v>
+      <c r="A527" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="B527" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C527">
         <v>22</v>
@@ -9044,7 +8995,7 @@
     </row>
     <row r="528" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="B528" t="s">
         <v>392</v>
@@ -9057,11 +9008,11 @@
       </c>
     </row>
     <row r="529" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A529" s="3" t="s">
-        <v>154</v>
+      <c r="A529" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="B529" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C529">
         <v>22</v>
@@ -9072,10 +9023,10 @@
     </row>
     <row r="530" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A530" s="3" t="s">
-        <v>215</v>
+        <v>370</v>
       </c>
       <c r="B530" t="s">
-        <v>162</v>
+        <v>393</v>
       </c>
       <c r="C530">
         <v>22</v>
@@ -9085,11 +9036,11 @@
       </c>
     </row>
     <row r="531" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A531" s="3" t="s">
-        <v>6</v>
+      <c r="A531" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B531" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C531">
         <v>22</v>
@@ -9100,7 +9051,7 @@
     </row>
     <row r="532" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B532" t="s">
         <v>392</v>
@@ -9114,7 +9065,7 @@
     </row>
     <row r="533" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
       <c r="B533" t="s">
         <v>392</v>
@@ -9127,11 +9078,11 @@
       </c>
     </row>
     <row r="534" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A534" s="2" t="s">
-        <v>380</v>
+      <c r="A534" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="B534" t="s">
-        <v>392</v>
+        <v>162</v>
       </c>
       <c r="C534">
         <v>22</v>
@@ -9141,11 +9092,11 @@
       </c>
     </row>
     <row r="535" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A535" s="1" t="s">
-        <v>67</v>
+      <c r="A535" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="B535" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C535">
         <v>22</v>
@@ -9156,7 +9107,7 @@
     </row>
     <row r="536" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
-        <v>100</v>
+        <v>369</v>
       </c>
       <c r="B536" t="s">
         <v>394</v>
@@ -9170,7 +9121,7 @@
     </row>
     <row r="537" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="B537" t="s">
         <v>394</v>
@@ -9184,7 +9135,7 @@
     </row>
     <row r="538" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
-        <v>134</v>
+        <v>355</v>
       </c>
       <c r="B538" t="s">
         <v>394</v>
@@ -9198,7 +9149,7 @@
     </row>
     <row r="539" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
-        <v>17</v>
+        <v>352</v>
       </c>
       <c r="B539" t="s">
         <v>393</v>
@@ -9211,11 +9162,11 @@
       </c>
     </row>
     <row r="540" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A540" s="2" t="s">
-        <v>208</v>
+      <c r="A540" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B540" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C540">
         <v>22</v>
@@ -9225,11 +9176,11 @@
       </c>
     </row>
     <row r="541" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A541" s="1" t="s">
-        <v>7</v>
+      <c r="A541" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="B541" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C541">
         <v>22</v>
@@ -9240,7 +9191,7 @@
     </row>
     <row r="542" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="B542" t="s">
         <v>394</v>
@@ -9254,7 +9205,7 @@
     </row>
     <row r="543" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="B543" t="s">
         <v>392</v>
@@ -9268,7 +9219,7 @@
     </row>
     <row r="544" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A544" s="3" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="B544" t="s">
         <v>393</v>
@@ -9281,11 +9232,11 @@
       </c>
     </row>
     <row r="545" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A545" s="1" t="s">
-        <v>103</v>
+      <c r="A545" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="B545" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C545">
         <v>22</v>
@@ -9295,11 +9246,11 @@
       </c>
     </row>
     <row r="546" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A546" s="3" t="s">
-        <v>246</v>
+      <c r="A546" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B546" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C546">
         <v>22</v>
@@ -9309,11 +9260,11 @@
       </c>
     </row>
     <row r="547" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A547" s="2" t="s">
-        <v>365</v>
+      <c r="A547" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="B547" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C547">
         <v>22</v>
@@ -9323,11 +9274,11 @@
       </c>
     </row>
     <row r="548" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A548" s="2" t="s">
-        <v>148</v>
+      <c r="A548" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="B548" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C548">
         <v>22</v>
@@ -9337,11 +9288,11 @@
       </c>
     </row>
     <row r="549" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A549" s="3" t="s">
-        <v>210</v>
+      <c r="A549" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B549" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C549">
         <v>22</v>
@@ -9351,11 +9302,11 @@
       </c>
     </row>
     <row r="550" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A550" s="2" t="s">
-        <v>339</v>
+      <c r="A550" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="B550" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C550">
         <v>22</v>
@@ -9366,7 +9317,7 @@
     </row>
     <row r="551" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="B551" t="s">
         <v>393</v>
@@ -9380,7 +9331,7 @@
     </row>
     <row r="552" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A552" s="3" t="s">
-        <v>252</v>
+        <v>47</v>
       </c>
       <c r="B552" t="s">
         <v>393</v>
@@ -9393,11 +9344,11 @@
       </c>
     </row>
     <row r="553" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A553" s="2" t="s">
-        <v>244</v>
+      <c r="A553" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B553" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C553">
         <v>23</v>
@@ -9408,7 +9359,7 @@
     </row>
     <row r="554" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A554" s="2" t="s">
-        <v>285</v>
+        <v>389</v>
       </c>
       <c r="B554" t="s">
         <v>392</v>
@@ -9421,11 +9372,11 @@
       </c>
     </row>
     <row r="555" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A555" s="3" t="s">
-        <v>370</v>
+      <c r="A555" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B555" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C555">
         <v>23</v>
@@ -9435,11 +9386,11 @@
       </c>
     </row>
     <row r="556" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A556" s="1" t="s">
-        <v>131</v>
+      <c r="A556" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B556" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C556">
         <v>23</v>
@@ -9450,7 +9401,7 @@
     </row>
     <row r="557" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B557" t="s">
         <v>392</v>
@@ -9463,11 +9414,11 @@
       </c>
     </row>
     <row r="558" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A558" s="2" t="s">
-        <v>329</v>
+      <c r="A558" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B558" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C558">
         <v>23</v>
@@ -9477,11 +9428,11 @@
       </c>
     </row>
     <row r="559" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A559" s="3" t="s">
-        <v>168</v>
+      <c r="A559" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B559" t="s">
-        <v>162</v>
+        <v>392</v>
       </c>
       <c r="C559">
         <v>23</v>
@@ -9491,11 +9442,11 @@
       </c>
     </row>
     <row r="560" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A560" s="2" t="s">
-        <v>351</v>
+      <c r="A560" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="B560" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C560">
         <v>23</v>
@@ -9505,11 +9456,11 @@
       </c>
     </row>
     <row r="561" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A561" s="1" t="s">
-        <v>369</v>
+      <c r="A561" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="B561" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C561">
         <v>23</v>
@@ -9519,11 +9470,11 @@
       </c>
     </row>
     <row r="562" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A562" s="1" t="s">
-        <v>87</v>
+      <c r="A562" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="B562" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C562">
         <v>23</v>
@@ -9534,7 +9485,7 @@
     </row>
     <row r="563" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
-        <v>355</v>
+        <v>234</v>
       </c>
       <c r="B563" t="s">
         <v>394</v>
@@ -9547,11 +9498,11 @@
       </c>
     </row>
     <row r="564" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A564" s="3" t="s">
-        <v>352</v>
+      <c r="A564" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B564" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C564">
         <v>23</v>
@@ -9561,11 +9512,11 @@
       </c>
     </row>
     <row r="565" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A565" s="1" t="s">
-        <v>83</v>
+      <c r="A565" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="B565" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C565">
         <v>23</v>
@@ -9575,11 +9526,11 @@
       </c>
     </row>
     <row r="566" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A566" s="2" t="s">
-        <v>303</v>
+      <c r="A566" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="B566" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C566">
         <v>23</v>
@@ -9590,7 +9541,7 @@
     </row>
     <row r="567" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="B567" t="s">
         <v>394</v>
@@ -9603,11 +9554,11 @@
       </c>
     </row>
     <row r="568" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A568" s="2" t="s">
-        <v>141</v>
+      <c r="A568" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="B568" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C568">
         <v>23</v>
@@ -9618,7 +9569,7 @@
     </row>
     <row r="569" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B569" t="s">
         <v>393</v>
@@ -9632,7 +9583,7 @@
     </row>
     <row r="570" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
-        <v>318</v>
+        <v>107</v>
       </c>
       <c r="B570" t="s">
         <v>392</v>
@@ -9646,7 +9597,7 @@
     </row>
     <row r="571" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="B571" t="s">
         <v>394</v>
@@ -9659,11 +9610,11 @@
       </c>
     </row>
     <row r="572" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A572" s="1" t="s">
-        <v>373</v>
+      <c r="A572" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B572" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C572">
         <v>23</v>
@@ -9673,11 +9624,11 @@
       </c>
     </row>
     <row r="573" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A573" s="3" t="s">
-        <v>298</v>
+      <c r="A573" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B573" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C573">
         <v>23</v>
@@ -9687,11 +9638,11 @@
       </c>
     </row>
     <row r="574" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A574" s="2" t="s">
-        <v>91</v>
+      <c r="A574" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="B574" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C574">
         <v>23</v>
@@ -9702,10 +9653,10 @@
     </row>
     <row r="575" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="B575" t="s">
-        <v>393</v>
+        <v>162</v>
       </c>
       <c r="C575">
         <v>23</v>
@@ -9715,11 +9666,11 @@
       </c>
     </row>
     <row r="576" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A576" s="3" t="s">
-        <v>222</v>
+      <c r="A576" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B576" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C576">
         <v>23</v>
@@ -9729,11 +9680,11 @@
       </c>
     </row>
     <row r="577" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A577" s="3" t="s">
-        <v>47</v>
+      <c r="A577" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="B577" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C577">
         <v>24</v>
@@ -9744,7 +9695,7 @@
     </row>
     <row r="578" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A578" s="3" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B578" t="s">
         <v>393</v>
@@ -9758,7 +9709,7 @@
     </row>
     <row r="579" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
-        <v>389</v>
+        <v>280</v>
       </c>
       <c r="B579" t="s">
         <v>392</v>
@@ -9771,11 +9722,11 @@
       </c>
     </row>
     <row r="580" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A580" s="1" t="s">
-        <v>74</v>
+      <c r="A580" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="B580" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C580">
         <v>24</v>
@@ -9785,11 +9736,11 @@
       </c>
     </row>
     <row r="581" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A581" s="2" t="s">
-        <v>16</v>
+      <c r="A581" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B581" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C581">
         <v>24</v>
@@ -9799,11 +9750,11 @@
       </c>
     </row>
     <row r="582" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A582" s="2" t="s">
-        <v>325</v>
+      <c r="A582" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B582" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C582">
         <v>24</v>
@@ -9814,7 +9765,7 @@
     </row>
     <row r="583" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A583" s="3" t="s">
-        <v>99</v>
+        <v>327</v>
       </c>
       <c r="B583" t="s">
         <v>393</v>
@@ -9827,11 +9778,11 @@
       </c>
     </row>
     <row r="584" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A584" s="2" t="s">
-        <v>71</v>
+      <c r="A584" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B584" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C584">
         <v>24</v>
@@ -9841,11 +9792,11 @@
       </c>
     </row>
     <row r="585" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A585" s="1" t="s">
-        <v>343</v>
+      <c r="A585" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B585" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C585">
         <v>24</v>
@@ -9855,11 +9806,11 @@
       </c>
     </row>
     <row r="586" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A586" s="3" t="s">
-        <v>266</v>
+      <c r="A586" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B586" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C586">
         <v>24</v>
@@ -9869,11 +9820,11 @@
       </c>
     </row>
     <row r="587" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A587" s="2" t="s">
-        <v>390</v>
+      <c r="A587" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="B587" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C587">
         <v>24</v>
@@ -9883,11 +9834,11 @@
       </c>
     </row>
     <row r="588" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A588" s="1" t="s">
-        <v>234</v>
+      <c r="A588" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="B588" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C588">
         <v>24</v>
@@ -9898,7 +9849,7 @@
     </row>
     <row r="589" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="B589" t="s">
         <v>394</v>
@@ -9911,11 +9862,11 @@
       </c>
     </row>
     <row r="590" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A590" s="3" t="s">
-        <v>301</v>
+      <c r="A590" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B590" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C590">
         <v>24</v>
@@ -9925,11 +9876,11 @@
       </c>
     </row>
     <row r="591" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A591" s="1" t="s">
-        <v>249</v>
+      <c r="A591" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="B591" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C591">
         <v>24</v>
@@ -9939,11 +9890,11 @@
       </c>
     </row>
     <row r="592" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A592" s="1" t="s">
-        <v>52</v>
+      <c r="A592" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="B592" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C592">
         <v>24</v>
@@ -9954,10 +9905,10 @@
     </row>
     <row r="593" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="B593" t="s">
-        <v>393</v>
+        <v>162</v>
       </c>
       <c r="C593">
         <v>24</v>
@@ -9968,7 +9919,7 @@
     </row>
     <row r="594" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A594" s="3" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="B594" t="s">
         <v>393</v>
@@ -9982,7 +9933,7 @@
     </row>
     <row r="595" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
-        <v>107</v>
+        <v>291</v>
       </c>
       <c r="B595" t="s">
         <v>392</v>
@@ -9996,7 +9947,7 @@
     </row>
     <row r="596" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="B596" t="s">
         <v>394</v>
@@ -10009,11 +9960,11 @@
       </c>
     </row>
     <row r="597" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A597" s="2" t="s">
-        <v>115</v>
+      <c r="A597" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B597" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C597">
         <v>24</v>
@@ -10023,11 +9974,11 @@
       </c>
     </row>
     <row r="598" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A598" s="1" t="s">
-        <v>124</v>
+      <c r="A598" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="B598" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C598">
         <v>24</v>
@@ -10037,11 +9988,11 @@
       </c>
     </row>
     <row r="599" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A599" s="1" t="s">
-        <v>283</v>
+      <c r="A599" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B599" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C599">
         <v>24</v>
@@ -10051,11 +10002,11 @@
       </c>
     </row>
     <row r="600" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A600" s="3" t="s">
-        <v>240</v>
+      <c r="A600" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="B600" t="s">
-        <v>162</v>
+        <v>394</v>
       </c>
       <c r="C600">
         <v>24</v>
@@ -10065,11 +10016,11 @@
       </c>
     </row>
     <row r="601" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A601" s="2" t="s">
-        <v>10</v>
+      <c r="A601" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="B601" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C601">
         <v>24</v>
@@ -10078,363 +10029,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A602" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B602" t="s">
-        <v>392</v>
-      </c>
-      <c r="C602">
-        <v>25</v>
-      </c>
-      <c r="D602">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="603" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A603" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B603" t="s">
-        <v>393</v>
-      </c>
-      <c r="C603">
-        <v>25</v>
-      </c>
-      <c r="D603">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A604" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B604" t="s">
-        <v>392</v>
-      </c>
-      <c r="C604">
-        <v>25</v>
-      </c>
-      <c r="D604">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A605" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B605" t="s">
-        <v>392</v>
-      </c>
-      <c r="C605">
-        <v>25</v>
-      </c>
-      <c r="D605">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A606" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B606" t="s">
-        <v>394</v>
-      </c>
-      <c r="C606">
-        <v>25</v>
-      </c>
-      <c r="D606">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A607" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B607" t="s">
-        <v>394</v>
-      </c>
-      <c r="C607">
-        <v>25</v>
-      </c>
-      <c r="D607">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A608" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B608" t="s">
-        <v>393</v>
-      </c>
-      <c r="C608">
-        <v>25</v>
-      </c>
-      <c r="D608">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="609" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A609" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B609" t="s">
-        <v>394</v>
-      </c>
-      <c r="C609">
-        <v>25</v>
-      </c>
-      <c r="D609">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="610" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A610" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B610" t="s">
-        <v>393</v>
-      </c>
-      <c r="C610">
-        <v>25</v>
-      </c>
-      <c r="D610">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="611" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A611" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B611" t="s">
-        <v>394</v>
-      </c>
-      <c r="C611">
-        <v>25</v>
-      </c>
-      <c r="D611">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="612" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A612" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B612" t="s">
-        <v>394</v>
-      </c>
-      <c r="C612">
-        <v>25</v>
-      </c>
-      <c r="D612">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="613" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A613" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B613" t="s">
-        <v>393</v>
-      </c>
-      <c r="C613">
-        <v>25</v>
-      </c>
-      <c r="D613">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="614" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A614" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B614" t="s">
-        <v>394</v>
-      </c>
-      <c r="C614">
-        <v>25</v>
-      </c>
-      <c r="D614">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="615" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A615" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B615" t="s">
-        <v>392</v>
-      </c>
-      <c r="C615">
-        <v>25</v>
-      </c>
-      <c r="D615">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="616" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A616" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B616" t="s">
-        <v>392</v>
-      </c>
-      <c r="C616">
-        <v>25</v>
-      </c>
-      <c r="D616">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="617" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A617" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B617" t="s">
-        <v>392</v>
-      </c>
-      <c r="C617">
-        <v>25</v>
-      </c>
-      <c r="D617">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="618" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A618" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B618" t="s">
-        <v>162</v>
-      </c>
-      <c r="C618">
-        <v>25</v>
-      </c>
-      <c r="D618">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="619" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A619" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B619" t="s">
-        <v>393</v>
-      </c>
-      <c r="C619">
-        <v>25</v>
-      </c>
-      <c r="D619">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="620" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A620" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B620" t="s">
-        <v>392</v>
-      </c>
-      <c r="C620">
-        <v>25</v>
-      </c>
-      <c r="D620">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="621" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A621" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B621" t="s">
-        <v>394</v>
-      </c>
-      <c r="C621">
-        <v>25</v>
-      </c>
-      <c r="D621">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="622" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A622" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B622" t="s">
-        <v>394</v>
-      </c>
-      <c r="C622">
-        <v>25</v>
-      </c>
-      <c r="D622">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="623" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A623" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B623" t="s">
-        <v>393</v>
-      </c>
-      <c r="C623">
-        <v>25</v>
-      </c>
-      <c r="D623">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="624" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A624" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B624" t="s">
-        <v>392</v>
-      </c>
-      <c r="C624">
-        <v>25</v>
-      </c>
-      <c r="D624">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="625" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A625" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B625" t="s">
-        <v>394</v>
-      </c>
-      <c r="C625">
-        <v>25</v>
-      </c>
-      <c r="D625">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="626" spans="1:4" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A626" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B626" t="s">
-        <v>393</v>
-      </c>
-      <c r="C626">
-        <v>25</v>
-      </c>
-      <c r="D626">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D626" xr:uid="{9D82698C-094E-4E04-9492-B1C9250F4816}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D626">
-      <sortCondition ref="C2:C626"/>
-      <sortCondition ref="D2:D626"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D601" xr:uid="{9D82698C-094E-4E04-9492-B1C9250F4816}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
